--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="437">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -32,1791 +32,1185 @@
     <t>AFG</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
     <t>ALG</t>
   </si>
   <si>
-    <t>DZ</t>
-  </si>
-  <si>
     <t>ASA</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>ANG</t>
   </si>
   <si>
-    <t>AO</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>ANT</t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>ARU</t>
   </si>
   <si>
-    <t>AW</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
     <t>AUS</t>
   </si>
   <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
     <t>AZE</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
     <t>BAH</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
     <t>BRN</t>
   </si>
   <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
     <t>BAN</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
     <t>BAR</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
     <t>BLR</t>
   </si>
   <si>
-    <t>BY</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>BEL</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
     <t>BIZ</t>
   </si>
   <si>
-    <t>BZ</t>
-  </si>
-  <si>
     <t>BER</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>BJ</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>BHU</t>
   </si>
   <si>
-    <t>BT</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>BO</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>BIH</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
     <t>BOT</t>
   </si>
   <si>
-    <t>BW</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>British Virgin Islands</t>
   </si>
   <si>
     <t>IVB</t>
   </si>
   <si>
-    <t>VG</t>
-  </si>
-  <si>
     <t>Brunei</t>
   </si>
   <si>
     <t>BRU</t>
   </si>
   <si>
-    <t>BN</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>BUL</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>BUR</t>
   </si>
   <si>
-    <t>BF</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>BDI</t>
   </si>
   <si>
-    <t>BI</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>CAM</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
     <t>CMR</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
     <t>CPV</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>CAY</t>
   </si>
   <si>
-    <t>KY</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>CHA</t>
   </si>
   <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
     <t>COL</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
     <t>CGO</t>
   </si>
   <si>
-    <t>CG</t>
-  </si>
-  <si>
     <t>Congo, Dem Rep</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>Cook Islands</t>
   </si>
   <si>
     <t>COK</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
     <t>CRC</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CIV</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
     <t>CRO</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>CU</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
     <t>CYP</t>
   </si>
   <si>
-    <t>CY</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
     <t>CZE</t>
   </si>
   <si>
-    <t>CZ</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>DEN</t>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
     <t>DJI</t>
   </si>
   <si>
-    <t>DJ</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
     <t>DMA</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
     <t>DOM</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>TLS</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>EG</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
     <t>ESA</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>GEQ</t>
   </si>
   <si>
-    <t>GQ</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>ERI</t>
   </si>
   <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
     <t>EST</t>
   </si>
   <si>
-    <t>EE</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>ET</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
     <t>FIJ</t>
   </si>
   <si>
-    <t>FJ</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>FI</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
     <t>FRA</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
     <t>GAM</t>
   </si>
   <si>
-    <t>GM</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>GEO</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>GER</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>GHA</t>
   </si>
   <si>
-    <t>GH</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
     <t>GRE</t>
   </si>
   <si>
-    <t>GR</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>GRN</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>GUM</t>
   </si>
   <si>
-    <t>GU</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>GUA</t>
   </si>
   <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
     <t>GUI</t>
   </si>
   <si>
-    <t>GN</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>GBS</t>
   </si>
   <si>
-    <t>GW</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>GUY</t>
   </si>
   <si>
-    <t>GY</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
     <t>HAI</t>
   </si>
   <si>
-    <t>HT</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>HON</t>
   </si>
   <si>
-    <t>HN</t>
-  </si>
-  <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>HK</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>HU</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>ISL</t>
   </si>
   <si>
-    <t>IS</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>IND</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>INA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>IRI</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
     <t>IRQ</t>
   </si>
   <si>
-    <t>IQ</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>IRL</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>JM</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
     <t>JOR</t>
   </si>
   <si>
-    <t>JO</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
     <t>KAZ</t>
   </si>
   <si>
-    <t>KZ</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>KEN</t>
   </si>
   <si>
-    <t>KE</t>
-  </si>
-  <si>
     <t>Korea, North</t>
   </si>
   <si>
     <t>PRK</t>
   </si>
   <si>
-    <t>KP</t>
-  </si>
-  <si>
     <t>Korea, South</t>
   </si>
   <si>
     <t>KOR</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>KUW</t>
   </si>
   <si>
-    <t>KW</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
     <t>KGZ</t>
   </si>
   <si>
-    <t>KG</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
     <t>LAO</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
     <t>LAT</t>
   </si>
   <si>
-    <t>LV</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
     <t>LIB</t>
   </si>
   <si>
-    <t>LB</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
     <t>LES</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
     <t>LBR</t>
   </si>
   <si>
-    <t>LR</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
     <t>LBA</t>
   </si>
   <si>
-    <t>LY</t>
-  </si>
-  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
     <t>LIE</t>
   </si>
   <si>
-    <t>LI</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>LTU</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
     <t>LUX</t>
   </si>
   <si>
-    <t>LU</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
     <t>MKD</t>
   </si>
   <si>
-    <t>MK</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
     <t>MAD</t>
   </si>
   <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
     <t>MAW</t>
   </si>
   <si>
-    <t>MW</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
     <t>MAS</t>
   </si>
   <si>
-    <t>MY</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>MDV</t>
   </si>
   <si>
-    <t>MV</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
     <t>MLT</t>
   </si>
   <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>MTN</t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>MRI</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>MX</t>
-  </si>
-  <si>
     <t>Micronesia</t>
   </si>
   <si>
     <t>FSM</t>
   </si>
   <si>
-    <t>FM</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
     <t>MON</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>MGL</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
     <t>MOZ</t>
   </si>
   <si>
-    <t>MZ</t>
-  </si>
-  <si>
     <t>Burma</t>
   </si>
   <si>
     <t>MYA</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Nauru</t>
   </si>
   <si>
     <t>NRU</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>NEP</t>
   </si>
   <si>
-    <t>NP</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>NED</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>AHO</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>NZ</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
     <t>NCA</t>
   </si>
   <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
     <t>NIG</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>NGR</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
     <t>OMA</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
     <t>PAK</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
     <t>PLW</t>
   </si>
   <si>
-    <t>PW</t>
-  </si>
-  <si>
     <t>Palestine, Occupied Territories</t>
   </si>
   <si>
     <t>PLE</t>
   </si>
   <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
     <t>PNG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
     <t>PAR</t>
   </si>
   <si>
-    <t>PY</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>PER</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
     <t>PHI</t>
   </si>
   <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>POL</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>POR</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>PUR</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>QAT</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>ROM</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>RUS</t>
   </si>
   <si>
-    <t>RU</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>RWA</t>
   </si>
   <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
     <t>SKN</t>
   </si>
   <si>
-    <t>KN</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
     <t>LCA</t>
   </si>
   <si>
-    <t>LC</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>VIN</t>
   </si>
   <si>
-    <t>VC</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>WS</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
     <t>SMR</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>KSA</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
     <t>SEN</t>
   </si>
   <si>
-    <t>SN</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
     <t>SCG</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
     <t>SEY</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
     <t>SLE</t>
   </si>
   <si>
-    <t>SL</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
     <t>SIN</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>SVK</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>SLO</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
     <t>SOL</t>
   </si>
   <si>
-    <t>SB</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
     <t>SOM</t>
   </si>
   <si>
-    <t>SO</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>RSA</t>
   </si>
   <si>
-    <t>ZA</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>SRI</t>
   </si>
   <si>
-    <t>LK</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
     <t>SUD</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>SUR</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>Swaziland</t>
   </si>
   <si>
     <t>SWZ</t>
   </si>
   <si>
-    <t>SZ</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>SWE</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
     <t>SUI</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>Syria</t>
   </si>
   <si>
     <t>SYR</t>
   </si>
   <si>
-    <t>SY</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
     <t>TPE</t>
   </si>
   <si>
-    <t>TW</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
     <t>TJK</t>
   </si>
   <si>
-    <t>TJ</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
     <t>TAN</t>
   </si>
   <si>
-    <t>TZ</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>THA</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
     <t>TOG</t>
   </si>
   <si>
-    <t>TG</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>TGA</t>
   </si>
   <si>
-    <t>TO</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>TRI</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>TKM</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>UG</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>UA</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
     <t>UAE</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
     <t>GBR</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>URU</t>
   </si>
   <si>
-    <t>UY</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
     <t>UZB</t>
   </si>
   <si>
-    <t>UZ</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
     <t>VAN</t>
   </si>
   <si>
-    <t>VU</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>VEN</t>
   </si>
   <si>
-    <t>VE</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>VIE</t>
   </si>
   <si>
-    <t>VN</t>
-  </si>
-  <si>
     <t>ISV</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>YEM</t>
   </si>
   <si>
-    <t>YE</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>ZAM</t>
   </si>
   <si>
-    <t>ZM</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>ZIM</t>
   </si>
   <si>
-    <t>ZW</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Country_Code</t>
   </si>
   <si>
-    <t>ISO_Code</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -1842,16 +1236,122 @@
   </si>
   <si>
     <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <t>URS</t>
+  </si>
+  <si>
+    <t>West Germany</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>Czechoclovakia</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Australasia</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>BOH</t>
+  </si>
+  <si>
+    <t>Bohemia</t>
+  </si>
+  <si>
+    <t>British West Indies</t>
+  </si>
+  <si>
+    <t>BWI</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>SUA</t>
+  </si>
+  <si>
+    <t>EUN</t>
+  </si>
+  <si>
+    <t>Unified Team</t>
+  </si>
+  <si>
+    <t>GDR</t>
+  </si>
+  <si>
+    <t>East Germany</t>
+  </si>
+  <si>
+    <t>FRG</t>
+  </si>
+  <si>
+    <t>IOP</t>
+  </si>
+  <si>
+    <t>Independent Olympians</t>
+  </si>
+  <si>
+    <t>IOA</t>
+  </si>
+  <si>
+    <t>NKO</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RUM</t>
+  </si>
+  <si>
+    <t>RU1</t>
+  </si>
+  <si>
+    <t>Russian Empire</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>YUG</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>ZZX</t>
+  </si>
+  <si>
+    <t>Mulitple Nations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1877,8 +1377,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2193,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2204,2229 +1705,1784 @@
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>594</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>597</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>102</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>600</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B61" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B62" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>125</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B68" t="s">
         <v>128</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>129</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>131</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B70" t="s">
         <v>132</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>135</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B72" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>137</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B74" t="s">
         <v>140</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B75" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>143</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B76" t="s">
         <v>144</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B77" t="s">
         <v>146</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B78" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>153</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B81" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>155</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B82" t="s">
         <v>156</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>158</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B84" t="s">
         <v>159</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B85" t="s">
         <v>161</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>162</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B86" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>601</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B87" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>166</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B88" t="s">
         <v>167</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B89" t="s">
         <v>169</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>170</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B90" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>172</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B91" t="s">
         <v>173</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B92" t="s">
         <v>175</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>176</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B93" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B94" t="s">
         <v>179</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B95" t="s">
         <v>181</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>182</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B96" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>184</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B97" t="s">
         <v>185</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B98" t="s">
         <v>187</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>188</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B99" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>190</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B100" t="s">
         <v>191</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>194</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B102" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>196</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B103" t="s">
         <v>197</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B104" t="s">
         <v>199</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>200</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B105" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>202</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B106" t="s">
         <v>203</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B107" t="s">
         <v>205</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>206</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B108" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>208</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B109" t="s">
         <v>209</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B110" t="s">
         <v>211</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>212</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B111" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B112" t="s">
         <v>215</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B113" t="s">
         <v>217</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>218</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B114" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>220</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B115" t="s">
         <v>221</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B116" t="s">
         <v>223</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>224</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B117" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>226</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B118" t="s">
         <v>227</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B119" t="s">
         <v>229</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>230</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B120" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>232</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B121" t="s">
         <v>233</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B122" t="s">
         <v>235</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>236</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B123" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>602</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>238</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B124" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>240</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B125" t="s">
         <v>241</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B126" t="s">
         <v>243</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>244</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B127" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>246</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B128" t="s">
         <v>247</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B129" t="s">
         <v>249</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>250</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B130" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>252</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B131" t="s">
         <v>253</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>255</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B133" t="s">
         <v>256</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B134" t="s">
         <v>258</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>259</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B135" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>261</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B136" t="s">
         <v>262</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B137" t="s">
         <v>264</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>265</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B138" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>267</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B139" t="s">
         <v>268</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B140" t="s">
         <v>270</v>
       </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>271</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B141" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>273</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B142" t="s">
         <v>274</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B143" t="s">
         <v>276</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>277</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B144" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>279</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B145" t="s">
         <v>280</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B146" t="s">
         <v>282</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>283</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B147" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>285</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B148" t="s">
         <v>286</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>288</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B150" t="s">
         <v>289</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B151" t="s">
         <v>291</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>292</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B152" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>294</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B153" t="s">
         <v>295</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B154" t="s">
         <v>297</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>298</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B155" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>300</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B156" t="s">
         <v>301</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B157" t="s">
         <v>303</v>
       </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>304</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B158" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>306</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B159" t="s">
         <v>307</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B160" t="s">
         <v>309</v>
       </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>310</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B161" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>312</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B162" t="s">
         <v>313</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B163" t="s">
         <v>315</v>
       </c>
-      <c r="B109" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>316</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B164" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>318</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B165" t="s">
         <v>319</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B166" t="s">
         <v>321</v>
       </c>
-      <c r="B111" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>322</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B167" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>324</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B168" t="s">
         <v>325</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B169" t="s">
         <v>327</v>
       </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>328</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B170" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>330</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B171" t="s">
         <v>331</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B172" t="s">
         <v>333</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>334</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B173" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>336</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B174" t="s">
         <v>337</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B175" t="s">
         <v>339</v>
       </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>340</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B176" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>342</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B177" t="s">
         <v>343</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B178" t="s">
         <v>345</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>346</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B179" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>348</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B180" t="s">
         <v>349</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B181" t="s">
         <v>351</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>352</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B182" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>354</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B183" t="s">
         <v>355</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B184" t="s">
         <v>357</v>
       </c>
-      <c r="B123" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>358</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B185" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>360</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B186" t="s">
         <v>361</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B187" t="s">
         <v>363</v>
       </c>
-      <c r="B125" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>364</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B188" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>366</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B189" t="s">
         <v>367</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B190" t="s">
         <v>369</v>
       </c>
-      <c r="B127" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>370</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B191" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>372</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B192" t="s">
         <v>373</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B193" t="s">
         <v>375</v>
       </c>
-      <c r="B129" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>376</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B194" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>378</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B195" t="s">
         <v>379</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B196" t="s">
         <v>381</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>382</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B197" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>603</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>384</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B198" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" t="s">
         <v>386</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>387</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B200" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>389</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B201" t="s">
         <v>390</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B202" t="s">
         <v>392</v>
       </c>
-      <c r="B135" t="s">
-        <v>393</v>
-      </c>
-      <c r="C135" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>395</v>
-      </c>
-      <c r="B136" t="s">
-        <v>396</v>
-      </c>
-      <c r="C136" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>398</v>
-      </c>
-      <c r="B137" t="s">
-        <v>399</v>
-      </c>
-      <c r="C137" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>401</v>
-      </c>
-      <c r="B138" t="s">
-        <v>402</v>
-      </c>
-      <c r="C138" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>404</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B203" t="s">
         <v>405</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>374</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>374</v>
+      </c>
+      <c r="B210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>407</v>
-      </c>
-      <c r="B140" t="s">
-        <v>408</v>
-      </c>
-      <c r="C140" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>410</v>
-      </c>
-      <c r="B141" t="s">
-        <v>411</v>
-      </c>
-      <c r="C141" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>413</v>
-      </c>
-      <c r="B142" t="s">
-        <v>414</v>
-      </c>
-      <c r="C142" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>416</v>
-      </c>
-      <c r="B143" t="s">
-        <v>417</v>
-      </c>
-      <c r="C143" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>419</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="B212" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" t="s">
         <v>420</v>
       </c>
-      <c r="C144" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>422</v>
-      </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" t="s">
         <v>423</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B215" t="s">
         <v>425</v>
       </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" t="s">
         <v>426</v>
       </c>
-      <c r="C146" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>290</v>
+      </c>
+      <c r="B217" t="s">
         <v>428</v>
       </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>290</v>
+      </c>
+      <c r="B218" t="s">
         <v>429</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>431</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>312</v>
+      </c>
+      <c r="B220" t="s">
         <v>432</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>604</v>
-      </c>
-      <c r="B149" t="s">
-        <v>434</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>436</v>
+      </c>
+      <c r="B222" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>436</v>
-      </c>
-      <c r="B150" t="s">
-        <v>437</v>
-      </c>
-      <c r="C150" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>439</v>
-      </c>
-      <c r="B151" t="s">
-        <v>440</v>
-      </c>
-      <c r="C151" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>442</v>
-      </c>
-      <c r="B152" t="s">
-        <v>443</v>
-      </c>
-      <c r="C152" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>445</v>
-      </c>
-      <c r="B153" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>448</v>
-      </c>
-      <c r="B154" t="s">
-        <v>449</v>
-      </c>
-      <c r="C154" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>451</v>
-      </c>
-      <c r="B155" t="s">
-        <v>452</v>
-      </c>
-      <c r="C155" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>454</v>
-      </c>
-      <c r="B156" t="s">
-        <v>455</v>
-      </c>
-      <c r="C156" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>457</v>
-      </c>
-      <c r="B157" t="s">
-        <v>458</v>
-      </c>
-      <c r="C157" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>460</v>
-      </c>
-      <c r="B158" t="s">
-        <v>461</v>
-      </c>
-      <c r="C158" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>463</v>
-      </c>
-      <c r="B159" t="s">
-        <v>464</v>
-      </c>
-      <c r="C159" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>466</v>
-      </c>
-      <c r="B160" t="s">
-        <v>467</v>
-      </c>
-      <c r="C160" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>469</v>
-      </c>
-      <c r="B161" t="s">
-        <v>470</v>
-      </c>
-      <c r="C161" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>472</v>
-      </c>
-      <c r="B162" t="s">
-        <v>473</v>
-      </c>
-      <c r="C162" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>475</v>
-      </c>
-      <c r="B163" t="s">
-        <v>476</v>
-      </c>
-      <c r="C163" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>478</v>
-      </c>
-      <c r="B164" t="s">
-        <v>479</v>
-      </c>
-      <c r="C164" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>481</v>
-      </c>
-      <c r="B165" t="s">
-        <v>482</v>
-      </c>
-      <c r="C165" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>484</v>
-      </c>
-      <c r="B166" t="s">
-        <v>485</v>
-      </c>
-      <c r="C166" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>487</v>
-      </c>
-      <c r="B167" t="s">
-        <v>488</v>
-      </c>
-      <c r="C167" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>490</v>
-      </c>
-      <c r="B168" t="s">
-        <v>491</v>
-      </c>
-      <c r="C168" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>493</v>
-      </c>
-      <c r="B169" t="s">
-        <v>494</v>
-      </c>
-      <c r="C169" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>496</v>
-      </c>
-      <c r="B170" t="s">
-        <v>497</v>
-      </c>
-      <c r="C170" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>499</v>
-      </c>
-      <c r="B171" t="s">
-        <v>500</v>
-      </c>
-      <c r="C171" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>502</v>
-      </c>
-      <c r="B172" t="s">
-        <v>503</v>
-      </c>
-      <c r="C172" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>505</v>
-      </c>
-      <c r="B173" t="s">
-        <v>506</v>
-      </c>
-      <c r="C173" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>508</v>
-      </c>
-      <c r="B174" t="s">
-        <v>509</v>
-      </c>
-      <c r="C174" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>511</v>
-      </c>
-      <c r="B175" t="s">
-        <v>512</v>
-      </c>
-      <c r="C175" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>514</v>
-      </c>
-      <c r="B176" t="s">
-        <v>515</v>
-      </c>
-      <c r="C176" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>517</v>
-      </c>
-      <c r="B177" t="s">
-        <v>518</v>
-      </c>
-      <c r="C177" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>520</v>
-      </c>
-      <c r="B178" t="s">
-        <v>521</v>
-      </c>
-      <c r="C178" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>523</v>
-      </c>
-      <c r="B179" t="s">
-        <v>524</v>
-      </c>
-      <c r="C179" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>526</v>
-      </c>
-      <c r="B180" t="s">
-        <v>527</v>
-      </c>
-      <c r="C180" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>529</v>
-      </c>
-      <c r="B181" t="s">
-        <v>530</v>
-      </c>
-      <c r="C181" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>532</v>
-      </c>
-      <c r="B182" t="s">
-        <v>533</v>
-      </c>
-      <c r="C182" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>535</v>
-      </c>
-      <c r="B183" t="s">
-        <v>536</v>
-      </c>
-      <c r="C183" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>538</v>
-      </c>
-      <c r="B184" t="s">
-        <v>539</v>
-      </c>
-      <c r="C184" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>541</v>
-      </c>
-      <c r="B185" t="s">
-        <v>542</v>
-      </c>
-      <c r="C185" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>544</v>
-      </c>
-      <c r="B186" t="s">
-        <v>545</v>
-      </c>
-      <c r="C186" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>547</v>
-      </c>
-      <c r="B187" t="s">
-        <v>548</v>
-      </c>
-      <c r="C187" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>550</v>
-      </c>
-      <c r="B188" t="s">
-        <v>551</v>
-      </c>
-      <c r="C188" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>553</v>
-      </c>
-      <c r="B189" t="s">
-        <v>554</v>
-      </c>
-      <c r="C189" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>556</v>
-      </c>
-      <c r="B190" t="s">
-        <v>557</v>
-      </c>
-      <c r="C190" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>559</v>
-      </c>
-      <c r="B191" t="s">
-        <v>560</v>
-      </c>
-      <c r="C191" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>562</v>
-      </c>
-      <c r="B192" t="s">
-        <v>563</v>
-      </c>
-      <c r="C192" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>565</v>
-      </c>
-      <c r="B193" t="s">
-        <v>566</v>
-      </c>
-      <c r="C193" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>568</v>
-      </c>
-      <c r="B194" t="s">
-        <v>569</v>
-      </c>
-      <c r="C194" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>571</v>
-      </c>
-      <c r="B195" t="s">
-        <v>572</v>
-      </c>
-      <c r="C195" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>574</v>
-      </c>
-      <c r="B196" t="s">
-        <v>575</v>
-      </c>
-      <c r="C196" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>577</v>
-      </c>
-      <c r="B197" t="s">
-        <v>578</v>
-      </c>
-      <c r="C197" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>580</v>
-      </c>
-      <c r="B198" t="s">
-        <v>581</v>
-      </c>
-      <c r="C198" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>605</v>
-      </c>
-      <c r="B199" t="s">
-        <v>583</v>
-      </c>
-      <c r="C199" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>585</v>
-      </c>
-      <c r="B200" t="s">
-        <v>586</v>
-      </c>
-      <c r="C200" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>588</v>
-      </c>
-      <c r="B201" t="s">
-        <v>589</v>
-      </c>
-      <c r="C201" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>591</v>
-      </c>
-      <c r="B202" t="s">
-        <v>592</v>
-      </c>
-      <c r="C202" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Countries.xlsx
+++ b/Data/Countries.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="436">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1251,9 +1251,6 @@
   </si>
   <si>
     <t>Czechoclovakia</t>
-  </si>
-  <si>
-    <t>Holland</t>
   </si>
   <si>
     <t>Australasia</t>
@@ -1694,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3342,12 +3339,12 @@
         <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>254</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
         <v>411</v>
@@ -3358,28 +3355,28 @@
         <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>414</v>
-      </c>
-      <c r="B208" t="s">
+        <v>374</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>374</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="B210" t="s">
         <v>417</v>
@@ -3387,39 +3384,39 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" t="s">
         <v>424</v>
-      </c>
-      <c r="B214" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
         <v>425</v>
@@ -3427,10 +3424,10 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" t="s">
         <v>427</v>
-      </c>
-      <c r="B216" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3443,7 +3440,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
         <v>429</v>
@@ -3451,15 +3448,15 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219" t="s">
         <v>431</v>
-      </c>
-      <c r="B219" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
         <v>432</v>
@@ -3467,18 +3464,10 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" t="s">
         <v>434</v>
-      </c>
-      <c r="B221" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>436</v>
-      </c>
-      <c r="B222" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
